--- a/2020/March/All Details/19.03.2020/MC Bank Statement March 2020.xlsx
+++ b/2020/March/All Details/19.03.2020/MC Bank Statement March 2020.xlsx
@@ -1581,7 +1581,7 @@
         <xdr:cNvPr id="1845" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47ED9286-E99E-4170-A6CD-A90D2E00B60F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{47ED9286-E99E-4170-A6CD-A90D2E00B60F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1593,7 +1593,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1616,14 +1616,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -3178,7 +3178,7 @@
   <dimension ref="A1:AL222"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="21.75" customHeight="1"/>
@@ -3405,7 +3405,7 @@
         <v>29</v>
       </c>
       <c r="E6" s="96">
-        <v>0</v>
+        <v>125000</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="88"/>
@@ -3451,7 +3451,7 @@
         <v>13</v>
       </c>
       <c r="E7" s="39">
-        <v>0</v>
+        <v>1959057</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="88"/>
@@ -3539,7 +3539,7 @@
         <v>56</v>
       </c>
       <c r="E9" s="95">
-        <v>0</v>
+        <v>384136.20750000048</v>
       </c>
       <c r="F9" s="5"/>
       <c r="G9" s="88"/>
@@ -3720,12 +3720,12 @@
       </c>
       <c r="E13" s="40">
         <f>E4+E5+E6+E7+E8-E11+E9-E10</f>
-        <v>4103199.1625000001</v>
+        <v>6571392.3700000001</v>
       </c>
       <c r="F13" s="5"/>
       <c r="G13" s="85">
         <f>B13-E13</f>
-        <v>2468193.2075</v>
+        <v>0</v>
       </c>
       <c r="H13" s="16"/>
       <c r="I13" s="14"/>
@@ -3855,7 +3855,7 @@
         <v>21</v>
       </c>
       <c r="E16" s="100">
-        <v>196050</v>
+        <v>196350</v>
       </c>
       <c r="F16" s="5"/>
       <c r="G16" s="90"/>
@@ -3903,7 +3903,7 @@
         <v>19</v>
       </c>
       <c r="E17" s="101">
-        <v>415255</v>
+        <v>381135</v>
       </c>
       <c r="G17" s="90"/>
       <c r="H17" s="89"/>
@@ -3990,14 +3990,14 @@
         <v>24</v>
       </c>
       <c r="B19" s="84">
-        <v>65000</v>
+        <v>63000</v>
       </c>
       <c r="C19" s="31"/>
       <c r="D19" s="34" t="s">
         <v>25</v>
       </c>
       <c r="E19" s="103">
-        <v>239000</v>
+        <v>274840</v>
       </c>
       <c r="G19" s="90"/>
       <c r="H19" s="89"/>
@@ -4037,7 +4037,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="119">
-        <v>99000</v>
+        <v>100000</v>
       </c>
       <c r="C20" s="120"/>
       <c r="D20" s="121" t="s">

--- a/2020/March/All Details/19.03.2020/MC Bank Statement March 2020.xlsx
+++ b/2020/March/All Details/19.03.2020/MC Bank Statement March 2020.xlsx
@@ -1581,7 +1581,7 @@
         <xdr:cNvPr id="1845" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{47ED9286-E99E-4170-A6CD-A90D2E00B60F}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47ED9286-E99E-4170-A6CD-A90D2E00B60F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1593,7 +1593,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1616,14 +1616,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -3178,7 +3178,7 @@
   <dimension ref="A1:AL222"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="21.75" customHeight="1"/>
